--- a/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
+++ b/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/VersioningAttributes/outputfile.xlsx
@@ -664,7 +664,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3" x14ac:knownFonts="1">
+  <x:fonts count="2" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
@@ -679,13 +679,6 @@
       <x:name val="Calibri"/>
       <x:family val="2"/>
       <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -707,7 +700,7 @@
   </x:borders>
   <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
